--- a/datas/datas.xlsx
+++ b/datas/datas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12585" windowWidth="28800"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12585" windowWidth="28800"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -41,16 +41,16 @@
       <sz val="12"/>
     </font>
     <font>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Consolas"/>
       <charset val="134"/>
       <color rgb="FF333333"/>
       <sz val="9.75"/>
-    </font>
-    <font>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -69,9 +69,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -83,16 +89,86 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -115,69 +191,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -185,21 +200,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -213,19 +213,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,25 +291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,49 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,19 +333,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,49 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,22 +435,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,37 +455,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,150 +478,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="32" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="15" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="18" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="25" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="18" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="11" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="10" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="7" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
@@ -686,7 +686,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -695,10 +698,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1154,18 +1154,22 @@
           <t>注册成功</t>
         </is>
       </c>
-      <c r="G2" s="9" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="12" t="n"/>
+      <c r="G2" s="10" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="17.25" r="3" s="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>正常注册用户名为空</t>
         </is>
@@ -1192,17 +1196,21 @@
       </c>
       <c r="G3" s="14" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="14" t="n"/>
+          <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
+        </is>
+      </c>
+      <c r="H3" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I3" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="4" s="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="9" t="inlineStr">
         <is>
           <t>重复注册</t>
         </is>
@@ -1229,17 +1237,21 @@
       </c>
       <c r="G4" s="14" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="14" t="n"/>
+          <t>{"status":0,"code":"20110","data":null,"msg":"手机号码已被注册"}</t>
+        </is>
+      </c>
+      <c r="H4" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I4" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="5" s="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
@@ -1266,17 +1278,21 @@
       </c>
       <c r="G5" s="14" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="14" t="n"/>
+          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+        </is>
+      </c>
+      <c r="H5" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I5" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="6" s="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
@@ -1303,10 +1319,14 @@
       </c>
       <c r="G6" s="14" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="14" t="n"/>
+          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+        </is>
+      </c>
+      <c r="H6" s="14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I6" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="7" s="1">
@@ -1340,10 +1360,14 @@
       </c>
       <c r="G7" s="15" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="15" t="n"/>
+          <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+        </is>
+      </c>
+      <c r="H7" s="15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I7" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="8" s="1">
@@ -1377,10 +1401,14 @@
       </c>
       <c r="G8" s="15" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="15" t="n"/>
+          <t>{"status":0,"code":"20108","data":null,"msg":"密码长度必须为6~18"}</t>
+        </is>
+      </c>
+      <c r="H8" s="15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I8" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="9" s="1">
@@ -1414,10 +1442,14 @@
       </c>
       <c r="G9" s="15" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="15" t="n"/>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H9" s="15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I9" s="15" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="10" s="1">
@@ -1451,10 +1483,14 @@
       </c>
       <c r="G10" s="15" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" s="15" t="n"/>
+          <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H10" s="15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
       <c r="I10" s="15" t="n"/>
     </row>
   </sheetData>
@@ -1471,8 +1507,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1488,42 +1524,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="9" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="9" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>input_data</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="9" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="9" t="inlineStr">
         <is>
           <t>actual</t>
         </is>
       </c>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="H1" s="9" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1558,12 +1594,16 @@
           <t>登录成功</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
+      <c r="G2" s="6" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="34.5" r="3" s="1">
       <c r="A3" s="3" t="n">
@@ -1596,10 +1636,14 @@
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n"/>
+          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="34.5" r="4" s="1">
       <c r="A4" s="3" t="n">
@@ -1630,12 +1674,16 @@
           <t>密码不能为空</t>
         </is>
       </c>
-      <c r="G4" s="10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="34.5" r="5" s="1">
       <c r="A5" s="3" t="n">
@@ -1666,12 +1714,16 @@
           <t>用户名或密码错误</t>
         </is>
       </c>
-      <c r="G5" s="10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n"/>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="34.5" r="6" s="1">
       <c r="A6" s="3" t="n">
@@ -1702,12 +1754,16 @@
           <t>用户名或密码错误</t>
         </is>
       </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n"/>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1722,8 +1778,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5"/>
@@ -1733,9 +1789,9 @@
     <col customWidth="1" max="3" min="3" style="1" width="15"/>
     <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
     <col customWidth="1" max="5" min="5" style="1" width="61"/>
-    <col customWidth="1" max="6" min="6" style="1" width="18.625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="27.125"/>
     <col customWidth="1" max="7" min="7" style="1" width="54.25"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7.375"/>
+    <col customWidth="1" max="8" min="8" style="1" width="9.5"/>
     <col customWidth="1" max="9" min="9" style="1" width="42.125"/>
   </cols>
   <sheetData>
@@ -1780,7 +1836,7 @@
           <t>result</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="8" t="inlineStr">
         <is>
           <t>check_sql</t>
         </is>
@@ -1805,7 +1861,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>{"mobilephone":"${investors_login_mobile}","pwd":"${investors_login_pwd}"}</t>
         </is>
@@ -1857,7 +1913,7 @@
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":117856,"regname":"account_investors","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17779548230","leaveamount":"1835078.15","type":"1","regtime":"2019-08-11 00:45:32.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":318055,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15913902765","leaveamount":"209007.83","type":"1","regtime":"2020-03-28 21:02:43.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -1865,7 +1921,7 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="6" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone="${investors_login_mobile}"</t>
         </is>
@@ -1895,7 +1951,7 @@
           <t>{"mobilephone":"88888888888","amount":"10000"}</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>手机号码格式不正确</t>
         </is>
@@ -2013,9 +2069,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"17611642608撒放寒假","amount":"10000"}</t>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"1761164260812","amount":"10000"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -2041,7 +2097,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>充值金额格式错误</t>
+          <t>充值金额大于50万</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -2054,19 +2110,19 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"${investors_login_mobile}","amount":"10000格式"}</t>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${investors_login_mobile}","amount":"1000000"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>请输入数字</t>
+          <t>请输入范围在0到50万之间的正数金额</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20118","data":null,"msg":"请输入数字"}</t>
+          <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
@@ -2148,7 +2204,7 @@
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":117856,"regname":"account_investors","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17779548230","leaveamount":"1845078.72","type":"1","regtime":"2019-08-11 00:45:32.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":318055,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15913902765","leaveamount":"219008.40","type":"1","regtime":"2020-03-28 21:02:43.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
@@ -2234,7 +2290,7 @@
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":117856,"regname":"account_investors","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"17779548230","leaveamount":"1846079.02","type":"1","regtime":"2019-08-11 00:45:32.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":318055,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15913902765","leaveamount":"220008.70","type":"1","regtime":"2020-03-28 21:02:43.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">

--- a/datas/datas.xlsx
+++ b/datas/datas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12585" windowWidth="28800"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8340" windowWidth="21540"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -69,15 +69,39 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,39 +122,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,7 +138,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -152,7 +147,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,23 +163,28 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +199,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -213,7 +213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,19 +279,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,37 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,49 +363,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +435,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,10 +455,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -478,191 +519,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="15" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="20" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="18" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="13" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="24" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="15" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="13" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="10" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="25" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="18" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
@@ -680,15 +680,15 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,17 +698,17 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1067,8 +1067,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1079,7 +1079,7 @@
     <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
     <col customWidth="1" max="5" min="5" style="1" width="76.375"/>
     <col customWidth="1" max="6" min="6" style="1" width="18.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="44.5"/>
+    <col customWidth="1" max="7" min="7" style="1" width="56.875"/>
     <col customWidth="1" max="8" min="8" style="1" width="7.375"/>
   </cols>
   <sheetData>
@@ -1126,10 +1126,10 @@
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="2" s="1">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>正常注册-全不为空</t>
         </is>
@@ -1146,20 +1146,20 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>{"mobilephone":"${unregistered_mobilephone}","pwd":"123456","regname":"hahahha"}</t>
-        </is>
-      </c>
-      <c r="F2" s="12" t="inlineStr">
+          <t>{"mobilephone":"${unregistered_mobile}","pwd":"123456","regname":"hahahha"}</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
         <is>
           <t>注册成功</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G2" s="13" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"注册成功"}</t>
         </is>
       </c>
-      <c r="H2" s="12" t="inlineStr">
+      <c r="H2" s="11" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>{"mobilephone": "${unregistered_mobilephone}", "pwd": "123456", "regname": ""}</t>
+          <t>{"mobilephone": "${unregistered_mobile}", "pwd": "123456", "regname": ""}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1333,7 +1333,7 @@
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="12" t="inlineStr">
         <is>
           <t>密码长度小于6位</t>
         </is>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>{"mobilephone": "${unregistered_mobilephone}", "pwd": "12345", "regname": "test_rabbit"}</t>
+          <t>{"mobilephone": "${unregistered_mobile}", "pwd": "12345", "regname": "test_rabbit"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1374,7 +1374,7 @@
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="12" t="inlineStr">
         <is>
           <t>密码长度大于18</t>
         </is>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>{"mobilephone": "${unregistered_mobilephone}", "pwd": "1234567891012457864", "regname": "test_rabbit"}</t>
+          <t>{"mobilephone": "${unregistered_mobile}", "pwd": "1234567891012457864", "regname": "test_rabbit"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -1415,7 +1415,7 @@
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="12" t="inlineStr">
         <is>
           <t>手机号不足11位</t>
         </is>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A1" sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5" outlineLevelRow="5"/>
@@ -1544,7 +1544,7 @@
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="9" t="inlineStr">
         <is>
           <t>input_data</t>
         </is>
@@ -1594,7 +1594,7 @@
           <t>登录成功</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
         </is>
@@ -1631,10 +1631,10 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>手机号为空</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
+          <t>手机号不能为空</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
         </is>
@@ -1674,7 +1674,7 @@
           <t>密码不能为空</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
         </is>
@@ -1714,7 +1714,7 @@
           <t>用户名或密码错误</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
@@ -1754,7 +1754,7 @@
           <t>用户名或密码错误</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
@@ -1778,8 +1778,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5"/>
@@ -1861,7 +1861,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone":"${investors_login_mobile}","pwd":"${investors_login_pwd}"}</t>
         </is>
@@ -1871,12 +1871,12 @@
           <t>登录成功</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1911,17 +1911,17 @@
           <t>充值成功</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>{"status":1,"code":"10001","data":{"id":318055,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15913902765","leaveamount":"209007.83","type":"1","regtime":"2020-03-28 21:02:43.0"},"msg":"充值成功"}</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I3" s="6" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"134007.83","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>SELECT LeaveAmount FROM member WHERE MobilePhone="${investors_login_mobile}"</t>
         </is>
@@ -1956,12 +1956,12 @@
           <t>手机号码格式不正确</t>
         </is>
       </c>
-      <c r="G4" s="5" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -1997,17 +1997,17 @@
           <t>手机号不能为空</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="n"/>
+      <c r="H5" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I5" s="6" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="6" s="1">
       <c r="A6" s="3" t="n">
@@ -2038,17 +2038,17 @@
           <t>请输入金额</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20115","data":null,"msg":"请输入金额"}</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I6" s="6" t="n"/>
     </row>
     <row customHeight="1" ht="17.25" r="7" s="1">
       <c r="A7" s="3" t="n">
@@ -2069,7 +2069,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone":"1761164260812","amount":"10000"}</t>
         </is>
@@ -2079,17 +2079,17 @@
           <t>手机号码格式不正确</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20109","data":null,"msg":"手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="n"/>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="8" s="1">
       <c r="A8" s="3" t="n">
@@ -2110,7 +2110,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>{"mobilephone":"${investors_login_mobile}","amount":"1000000"}</t>
         </is>
@@ -2120,17 +2120,17 @@
           <t>请输入范围在0到50万之间的正数金额</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="n"/>
+      <c r="H8" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="n"/>
     </row>
     <row customHeight="1" ht="34.5" r="9" s="1">
       <c r="A9" s="3" t="n">
@@ -2161,17 +2161,17 @@
           <t>请输入范围在0到50万之间的正数金额</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20117","data":null,"msg":"请输入范围在0到50万之间的正数金额"}</t>
         </is>
       </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="n"/>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n"/>
     </row>
     <row customHeight="1" ht="63.75" r="10" s="1">
       <c r="A10" s="3" t="n">
@@ -2202,12 +2202,12 @@
           <t>充值成功</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
-        <is>
-          <t>{"status":1,"code":"10001","data":{"id":318055,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15913902765","leaveamount":"219008.40","type":"1","regtime":"2020-03-28 21:02:43.0"},"msg":"充值成功"}</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"144008.40","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2247,17 +2247,17 @@
           <t>输入金额的金额小数不能超过两位</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"20116","data":null,"msg":"输入金额的金额小数不能超过两位"}</t>
         </is>
       </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I11" s="5" t="n"/>
+      <c r="H11" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I11" s="6" t="n"/>
     </row>
     <row customHeight="1" ht="63.75" r="12" s="1">
       <c r="A12" s="3" t="n">
@@ -2288,12 +2288,12 @@
           <t>充值成功</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
-        <is>
-          <t>{"status":1,"code":"10001","data":{"id":318055,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15913902765","leaveamount":"220008.70","type":"1","regtime":"2020-03-28 21:02:43.0"},"msg":"充值成功"}</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"145008.70","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -2318,7 +2318,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5"/>
@@ -2786,10 +2786,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5"/>
@@ -2800,7 +2800,7 @@
     <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
     <col customWidth="1" max="5" min="5" style="1" width="80"/>
     <col customWidth="1" max="6" min="6" style="1" width="23.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="27.125"/>
+    <col customWidth="1" max="7" min="7" style="1" width="27"/>
     <col customWidth="1" max="8" min="8" style="1" width="7.375"/>
     <col customWidth="1" max="9" min="9" style="1" width="59"/>
   </cols>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="42.75" r="2" s="1">
+    <row customHeight="1" ht="17.25" r="2" s="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -2871,9 +2871,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>{"mobilephone":"${auditor_login_mobile}","pwd":"${auditor_login_pwd}"}</t>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>{"mobilephone":"${admin_login_mobile}","pwd":"${admin_login_pwd}"}</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -2881,19 +2881,19 @@
           <t>登录成功</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I2" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="50.25" r="3" s="1">
+    <row customHeight="1" ht="48.75" r="3" s="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -2912,9 +2912,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${auditor_member_id}","title":"borrower新增项目","amount":"1000000","loanRate":"18.0","loanTerm":"6","loanDateType":"0","repaymemtWay":"5","biddingDays":"8"}</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${borrow_id}","title":"borrower新增项目","amount":"1000000","loanRate":"18.0","loanTerm":"6","loanDateType":"0","repaymemtWay":"5","biddingDays":"8"}</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -2922,23 +2922,23 @@
           <t>加标成功</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>SELECT Id FROM loan WHERE MemberID="${auditor_member_id}" ORDER BY CreateTime DESC LIMIT 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="57" r="4" s="1">
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>SELECT Id FROM loan WHERE MemberID="${borrow_id}" ORDER BY CreateTime DESC LIMIT 0,1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="4" s="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -2957,9 +2957,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>{"id":${loan_id_pattern},"status":4}</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>{"id":${loan_id},"status":4}</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -2967,18 +2967,18 @@
           <t>更新状态成功：竞标开始，当前标为竞标中状态</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="51" r="5" s="1">
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="34.5" r="5" s="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -2997,9 +2997,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"${investors_login_pwd}","loanId":"57368","amount":"5000"}</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"57368","amount":"5000"}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>{"memberId":"${investors_member_id}","password":"${investors_login_pwd}","loanId":"${loan_id_pattern}","amount":"5000"}</t>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"${loan_id}","amount":"5000"}</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -3048,12 +3048,12 @@
           <t>竞标成功</t>
         </is>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="7" s="1">
+    <row customHeight="1" ht="31.5" r="7" s="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -3083,9 +3083,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"${investors_login_pwd}","loanId":"1257372","amount":"5000"}</t>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"9999999999","amount":"5000"}</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -3093,12 +3093,12 @@
           <t>不存在该标的</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
         </is>
       </c>
-      <c r="H7" s="5" t="inlineStr">
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -3124,9 +3124,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"9549999","password":"123456","loanId":"57372","amount":"5000"}</t>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"9549999","password":"123456","loanId":"${loan_id}","amount":"5000"}</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -3134,19 +3134,19 @@
           <t>不存在该用户</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"11008","data":null,"msg":"不存在该用户"}</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I8" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="48.75" r="9" s="1">
+    <row customHeight="1" ht="34.5" r="9" s="1">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -3165,9 +3165,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"","loanId":"1257372","amount":"5000"}</t>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"","loanId":"${loan_id}","amount":"5000"}</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -3175,25 +3175,25 @@
           <t>参数错误:所有参数都不能为空</t>
         </is>
       </c>
-      <c r="G9" s="5" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"11003","data":null,"msg":"参数错误:所有参数都不能为空"}</t>
         </is>
       </c>
-      <c r="H9" s="5" t="inlineStr">
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I9" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="33" r="10" s="1">
+    <row customHeight="1" ht="31.5" r="10" s="1">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>入参loanId小于0或等于0</t>
+          <t>入参loanId小于0</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -3206,9 +3206,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"${investors_login_pwd}","loanId":"-57","amount":"5000"}</t>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"-57","amount":"5000"}</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -3216,25 +3216,25 @@
           <t>不存在该标的</t>
         </is>
       </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
         </is>
       </c>
-      <c r="H10" s="5" t="inlineStr">
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I10" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="48.75" r="11" s="1">
+    <row customHeight="1" ht="31.5" r="11" s="1">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>入参password长度小于6</t>
+          <t>入参loanId等于0</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -3247,35 +3247,35 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"1234","loanId":"57372","amount":"5000"}</t>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"0","amount":"5000"}</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>参数错误，password长度必须大于6位且小于18位</t>
-        </is>
-      </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
+          <t>不存在该标的</t>
+        </is>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11009","data":null,"msg":"不存在该标的"}</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I11" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="48.75" r="12" s="1">
+    <row customHeight="1" ht="34.5" r="12" s="1">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>入参password长度大于18</t>
+          <t>入参password长度小于6</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -3288,9 +3288,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"12345678910124758945","loanId":"57372","amount":"5000"}</t>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"1234","loanId":"${loan_id}","amount":"5000"}</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -3298,25 +3298,25 @@
           <t>参数错误，password长度必须大于6位且小于18位</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr">
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
         </is>
       </c>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I12" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="48.75" r="13" s="1">
+    <row customHeight="1" ht="34.5" r="13" s="1">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>入参投资金额大于项目可投资金额</t>
+          <t>入参password长度大于18</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -3329,68 +3329,150 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"${investors_login_pwd}","loanId":"57369","amount":"5000"}</t>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"12345678910124758945","loanId":"${loan_id}","amount":"5000"}</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>该标可投金额不足，可投金额：100.0</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr">
-        <is>
-          <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足，可投金额：100.0"}</t>
-        </is>
-      </c>
-      <c r="H13" s="5" t="inlineStr">
+          <t>参数错误，password长度必须大于6位且小于18位</t>
+        </is>
+      </c>
+      <c r="G13" s="6" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11006","data":null,"msg":"参数错误，password长度必须大于6位且小于18位"}</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
       </c>
       <c r="I13" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="48.75" r="14" s="1">
+    <row customHeight="1" ht="34.5" r="14" s="1">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
+          <t>投资金额大于可投资金额</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"57369","amount":"10000"}</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>该标可投金额不足</t>
+        </is>
+      </c>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11012","data":null,"msg":"该标可投金额不足，可投金额：100.0"}</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="15" s="1">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>投资金额为不能被100整除的数</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>/member/bidLoan</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"${loan_id}","amount":"520"}</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>参数错误，投资金额必须是能被100整除的正整数</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>{"status":0,"code":"11007","data":null,"msg":"参数错误，投资金额必须是能被100整除的正整数"}</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="n"/>
+    </row>
+    <row customHeight="1" ht="34.5" r="16" s="1">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
           <t>项目已经满标继续进行投资竞标</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>/member/bidLoan</t>
         </is>
       </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>{"memberId":"${investors_member_id}","password":"${investors_login_pwd}","loanId":"57370","amount":"5000"}</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>{"memberId":"${investors_login_id}","password":"${investors_login_pwd}","loanId":"57370","amount":"5000"}</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
         <is>
           <t>该标不在竞标中状态，无法完成投标</t>
         </is>
       </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>{"status":0,"code":"11010","data":null,"msg":"该标不在竞标中状态，无法完成投标"}</t>
         </is>
       </c>
-      <c r="H14" s="5" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n"/>
+      <c r="H16" s="6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/datas/datas.xlsx
+++ b/datas/datas.xlsx
@@ -1913,7 +1913,7 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"134007.83","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"166009.57","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"144008.40","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"176010.14","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"145008.70","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"177010.44","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">

--- a/datas/datas.xlsx
+++ b/datas/datas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8340" windowWidth="21540"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21540" windowHeight="8340" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="add" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -521,257 +521,257 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="20" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="13" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="15" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="13" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="10" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="1"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="2"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="3"/>
-    <cellStyle builtinId="20" name="输入" xfId="4"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="5"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="4" name="货币" xfId="7"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="8"/>
-    <cellStyle builtinId="5" name="百分比" xfId="9"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="10"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="12"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="14"/>
-    <cellStyle builtinId="22" name="计算" xfId="15"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="16"/>
-    <cellStyle builtinId="28" name="适中" xfId="17"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="18"/>
-    <cellStyle builtinId="26" name="好" xfId="19"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="20"/>
-    <cellStyle builtinId="25" name="汇总" xfId="21"/>
-    <cellStyle builtinId="27" name="差" xfId="22"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="25"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="26"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="27"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="28"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="29"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="30"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="31"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="32"/>
-    <cellStyle builtinId="15" name="标题" xfId="33"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="34"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="35"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
-    <cellStyle builtinId="10" name="注释" xfId="37"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="38"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="39"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="40"/>
-    <cellStyle builtinId="8" name="超链接" xfId="41"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="42"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="47"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1073,14 +1073,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="8.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="18.875"/>
-    <col customWidth="1" max="3" min="3" style="1" width="14"/>
-    <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="76.375"/>
-    <col customWidth="1" max="6" min="6" style="1" width="18.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="56.875"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7.375"/>
+    <col width="8.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="18.875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14" customWidth="1" style="1" min="3" max="3"/>
+    <col width="7.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="76.375" customWidth="1" style="1" min="5" max="5"/>
+    <col width="18.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="56.875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="7.375" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="2" s="1">
+    <row r="2" ht="17.25" customHeight="1" s="1">
       <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="3" s="1">
+    <row r="3" ht="17.25" customHeight="1" s="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I3" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="4" s="1">
+    <row r="4" ht="34.5" customHeight="1" s="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="I4" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="5" s="1">
+    <row r="5" ht="34.5" customHeight="1" s="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I5" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="6" s="1">
+    <row r="6" ht="34.5" customHeight="1" s="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I6" s="16" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="7" s="1">
+    <row r="7" ht="34.5" customHeight="1" s="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="I7" s="15" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="8" s="1">
+    <row r="8" ht="34.5" customHeight="1" s="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="I8" s="15" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="9" s="1">
+    <row r="9" ht="34.5" customHeight="1" s="1">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="I9" s="15" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="10" s="1">
+    <row r="10" ht="34.5" customHeight="1" s="1">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="I10" s="15" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -1513,14 +1513,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="6.5"/>
-    <col customWidth="1" max="2" min="2" style="1" width="10.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="12.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="6.5"/>
-    <col customWidth="1" max="5" min="5" style="1" width="61"/>
-    <col customWidth="1" max="6" min="6" style="1" width="16.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="39.25"/>
-    <col customWidth="1" max="8" min="8" style="1" width="5.375"/>
+    <col width="6.5" customWidth="1" style="1" min="1" max="1"/>
+    <col width="10.625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12.25" customWidth="1" style="1" min="3" max="3"/>
+    <col width="6.5" customWidth="1" style="1" min="4" max="4"/>
+    <col width="61" customWidth="1" style="1" min="5" max="5"/>
+    <col width="16.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="39.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="5.375" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="2" s="1">
+    <row r="2" ht="34.5" customHeight="1" s="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="3" s="1">
+    <row r="3" ht="34.5" customHeight="1" s="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="4" s="1">
+    <row r="4" ht="34.5" customHeight="1" s="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="5" s="1">
+    <row r="5" ht="34.5" customHeight="1" s="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="6" s="1">
+    <row r="6" ht="34.5" customHeight="1" s="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1784,15 +1784,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="8.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="15.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="15"/>
-    <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="61"/>
-    <col customWidth="1" max="6" min="6" style="1" width="27.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="54.25"/>
-    <col customWidth="1" max="8" min="8" style="1" width="9.5"/>
-    <col customWidth="1" max="9" min="9" style="1" width="42.125"/>
+    <col width="8.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="15.625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15" customWidth="1" style="1" min="3" max="3"/>
+    <col width="7.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="61" customWidth="1" style="1" min="5" max="5"/>
+    <col width="27.125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="54.25" customWidth="1" style="1" min="7" max="7"/>
+    <col width="9.5" customWidth="1" style="1" min="8" max="8"/>
+    <col width="42.125" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="2" s="1">
+    <row r="2" ht="17.25" customHeight="1" s="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="64.5" r="3" s="1">
+    <row r="3" ht="64.5" customHeight="1" s="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"166009.57","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"230013.05","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
@@ -1927,7 +1927,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4" s="1">
+    <row r="4" ht="18" customHeight="1" s="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="I4" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="5" s="1">
+    <row r="5" ht="17.25" customHeight="1" s="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="6" s="1">
+    <row r="6" ht="17.25" customHeight="1" s="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
       <c r="I6" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="17.25" r="7" s="1">
+    <row r="7" ht="17.25" customHeight="1" s="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="I7" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="8" s="1">
+    <row r="8" ht="34.5" customHeight="1" s="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="I8" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="9" s="1">
+    <row r="9" ht="34.5" customHeight="1" s="1">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="I9" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="63.75" r="10" s="1">
+    <row r="10" ht="63.75" customHeight="1" s="1">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"176010.14","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"240013.62","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H10" s="6" t="inlineStr">
@@ -2218,7 +2218,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="11" s="1">
+    <row r="11" ht="34.5" customHeight="1" s="1">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="I11" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="63.75" r="12" s="1">
+    <row r="12" ht="63.75" customHeight="1" s="1">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"177010.44","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
+          <t>{"status":1,"code":"10001","data":{"id":329558,"regname":"invest_user","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"15969532480","leaveamount":"241013.92","type":"1","regtime":"2020-04-20 17:24:14.0"},"msg":"充值成功"}</t>
         </is>
       </c>
       <c r="H12" s="6" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2323,14 +2323,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="8.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="25"/>
-    <col customWidth="1" max="3" min="3" style="1" width="12.25"/>
-    <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="91.5"/>
-    <col customWidth="1" max="6" min="6" style="1" width="24.625"/>
-    <col customWidth="1" max="7" min="7" style="1" width="28.5"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7.375"/>
+    <col width="8.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="25" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12.25" customWidth="1" style="1" min="3" max="3"/>
+    <col width="7.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="91.5" customWidth="1" style="1" min="5" max="5"/>
+    <col width="24.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="28.5" customWidth="1" style="1" min="7" max="7"/>
+    <col width="7.375" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="2" s="1">
+    <row r="2" ht="33.75" customHeight="1" s="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -2415,7 +2415,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="3" s="1">
+    <row r="3" ht="33.75" customHeight="1" s="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="4" s="1">
+    <row r="4" ht="33.75" customHeight="1" s="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="5" s="1">
+    <row r="5" ht="33.75" customHeight="1" s="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -2535,7 +2535,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="33.75" r="6" s="1">
+    <row r="6" ht="33.75" customHeight="1" s="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -2575,7 +2575,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="51" r="7" s="1">
+    <row r="7" ht="51" customHeight="1" s="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="8" s="1">
+    <row r="8" ht="67.5" customHeight="1" s="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -2655,7 +2655,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="9" s="1">
+    <row r="9" ht="67.5" customHeight="1" s="1">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -2695,7 +2695,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.5" r="10" s="1">
+    <row r="10" ht="67.5" customHeight="1" s="1">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="51" r="11" s="1">
+    <row r="11" ht="51" customHeight="1" s="1">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
@@ -2776,7 +2776,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2794,15 +2794,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="8.375"/>
-    <col customWidth="1" max="2" min="2" style="1" width="28.625"/>
-    <col customWidth="1" max="3" min="3" style="1" width="14.875"/>
-    <col customWidth="1" max="4" min="4" style="1" width="7.375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="80"/>
-    <col customWidth="1" max="6" min="6" style="1" width="23.125"/>
-    <col customWidth="1" max="7" min="7" style="1" width="27"/>
-    <col customWidth="1" max="8" min="8" style="1" width="7.375"/>
-    <col customWidth="1" max="9" min="9" style="1" width="59"/>
+    <col width="8.375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="28.625" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14.875" customWidth="1" style="1" min="3" max="3"/>
+    <col width="7.375" customWidth="1" style="1" min="4" max="4"/>
+    <col width="80" customWidth="1" style="1" min="5" max="5"/>
+    <col width="23.125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="27" customWidth="1" style="1" min="7" max="7"/>
+    <col width="7.375" customWidth="1" style="1" min="8" max="8"/>
+    <col width="59" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.25" r="2" s="1">
+    <row r="2" ht="17.25" customHeight="1" s="1">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="I2" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="48.75" r="3" s="1">
+    <row r="3" ht="48.75" customHeight="1" s="1">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -2938,7 +2938,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="4" s="1">
+    <row r="4" ht="34.5" customHeight="1" s="1">
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34.5" r="5" s="1">
+    <row r="5" ht="34.5" customHeight="1" s="1">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="I5" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="6" s="1">
+    <row r="6" ht="34.5" customHeight="1" s="1">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -3064,7 +3064,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="31.5" r="7" s="1">
+    <row r="7" ht="31.5" customHeight="1" s="1">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="I7" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="8" s="1">
+    <row r="8" ht="34.5" customHeight="1" s="1">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="I8" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="9" s="1">
+    <row r="9" ht="34.5" customHeight="1" s="1">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="I9" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="31.5" r="10" s="1">
+    <row r="10" ht="31.5" customHeight="1" s="1">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="I10" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="31.5" r="11" s="1">
+    <row r="11" ht="31.5" customHeight="1" s="1">
       <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="I11" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="12" s="1">
+    <row r="12" ht="34.5" customHeight="1" s="1">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I12" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="13" s="1">
+    <row r="13" ht="34.5" customHeight="1" s="1">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="I13" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="14" s="1">
+    <row r="14" ht="34.5" customHeight="1" s="1">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="I14" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="15" s="1">
+    <row r="15" ht="34.5" customHeight="1" s="1">
       <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I15" s="3" t="n"/>
     </row>
-    <row customHeight="1" ht="34.5" r="16" s="1">
+    <row r="16" ht="34.5" customHeight="1" s="1">
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
@@ -3475,6 +3475,6 @@
       <c r="I16" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>